--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1800.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1800.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.149729927393442</v>
+        <v>0.7445297241210938</v>
       </c>
       <c r="B1">
-        <v>2.270871819675692</v>
+        <v>1.582640290260315</v>
       </c>
       <c r="C1">
-        <v>4.411511754160467</v>
+        <v>4.748236179351807</v>
       </c>
       <c r="D1">
-        <v>2.941543036569541</v>
+        <v>2.402153491973877</v>
       </c>
       <c r="E1">
-        <v>1.160374054964327</v>
+        <v>1.269577145576477</v>
       </c>
     </row>
   </sheetData>
